--- a/team_specific_matrix/St. John's (NY)_A.xlsx
+++ b/team_specific_matrix/St. John's (NY)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5034013605442177</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.173469387755102</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.07823129251700681</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7531645569620253</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.1835443037974684</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3238095238095238</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4060606060606061</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.09699769053117784</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0207852193995381</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04849884526558892</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1547344110854504</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01847575057736721</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1732101616628176</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.08545034642032333</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4018475750577367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3716216216216216</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1110242376856919</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0218921032056294</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007818608287724785</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.07818608287724785</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1579358874120406</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.007818608287724784</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2150117279124316</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.08444096950742767</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3229085222830336</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1305970149253731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5410447761194029</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.007462686567164179</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.405</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.055</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06919642857142858</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1316964285714286</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1611111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2302222222222222</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.368</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01511111111111111</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008888888888888889</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.07377777777777778</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1253333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/St. John's (NY)_A.xlsx
+++ b/team_specific_matrix/St. John's (NY)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2346938775510204</v>
+        <v>0.2280130293159609</v>
       </c>
       <c r="C2">
-        <v>0.5034013605442177</v>
+        <v>0.5146579804560261</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006802721088435374</v>
+        <v>0.009771986970684038</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003401360544217687</v>
+        <v>0.003257328990228013</v>
       </c>
       <c r="P2">
-        <v>0.173469387755102</v>
+        <v>0.1693811074918567</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07823129251700681</v>
+        <v>0.07491856677524431</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05063291139240506</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01265822784810127</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7531645569620253</v>
+        <v>0.7559523809523809</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1835443037974684</v>
+        <v>0.1845238095238095</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05714285714285714</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009523809523809525</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0761904761904762</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3095238095238095</v>
+        <v>0.2995594713656388</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01904761904761905</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1571428571428571</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="R6">
-        <v>0.04761904761904762</v>
+        <v>0.04845814977973568</v>
       </c>
       <c r="S6">
-        <v>0.3238095238095238</v>
+        <v>0.3348017621145374</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08484848484848485</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01818181818181818</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04242424242424243</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1636363636363636</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01818181818181818</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1878787878787879</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="R7">
-        <v>0.07878787878787878</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="S7">
-        <v>0.4060606060606061</v>
+        <v>0.398876404494382</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09699769053117784</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0207852193995381</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04849884526558892</v>
+        <v>0.05591397849462366</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1547344110854504</v>
+        <v>0.1526881720430107</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01847575057736721</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1732101616628176</v>
+        <v>0.1763440860215054</v>
       </c>
       <c r="R8">
-        <v>0.08545034642032333</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="S8">
-        <v>0.4018475750577367</v>
+        <v>0.3978494623655914</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1013513513513514</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006756756756756757</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03378378378378379</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1621621621621622</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01351351351351351</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2297297297297297</v>
+        <v>0.2269938650306748</v>
       </c>
       <c r="R9">
-        <v>0.08108108108108109</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="S9">
-        <v>0.3716216216216216</v>
+        <v>0.3803680981595092</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1110242376856919</v>
+        <v>0.1072992700729927</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0218921032056294</v>
+        <v>0.02116788321167883</v>
       </c>
       <c r="E10">
-        <v>0.0007818608287724785</v>
+        <v>0.00072992700729927</v>
       </c>
       <c r="F10">
-        <v>0.07818608287724785</v>
+        <v>0.07591240875912408</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1579358874120406</v>
+        <v>0.1569343065693431</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007818608287724784</v>
+        <v>0.008759124087591242</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2150117279124316</v>
+        <v>0.2211678832116788</v>
       </c>
       <c r="R10">
-        <v>0.08444096950742767</v>
+        <v>0.08102189781021898</v>
       </c>
       <c r="S10">
-        <v>0.3229085222830336</v>
+        <v>0.327007299270073</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1305970149253731</v>
+        <v>0.1268115942028986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1194029850746269</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="K11">
-        <v>0.2014925373134328</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L11">
-        <v>0.5410447761194029</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007462686567164179</v>
+        <v>0.007246376811594203</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7466666666666667</v>
+        <v>0.759493670886076</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1933333333333333</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="K12">
-        <v>0.02666666666666667</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="L12">
-        <v>0.02</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01333333333333333</v>
+        <v>0.01265822784810127</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08823529411764706</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.08</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J15">
-        <v>0.405</v>
+        <v>0.3935185185185185</v>
       </c>
       <c r="K15">
-        <v>0.115</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.055</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.195</v>
+        <v>0.1990740740740741</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01515151515151515</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2121212121212121</v>
+        <v>0.2163461538461539</v>
       </c>
       <c r="I16">
-        <v>0.0707070707070707</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="J16">
-        <v>0.3787878787878788</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0202020202020202</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05555555555555555</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.1346153846153846</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01785714285714286</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1785714285714286</v>
+        <v>0.1782786885245902</v>
       </c>
       <c r="I17">
-        <v>0.07142857142857142</v>
+        <v>0.07172131147540983</v>
       </c>
       <c r="J17">
-        <v>0.4375</v>
+        <v>0.4364754098360656</v>
       </c>
       <c r="K17">
-        <v>0.07142857142857142</v>
+        <v>0.06762295081967214</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02232142857142857</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06919642857142858</v>
+        <v>0.07172131147540983</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1316964285714286</v>
+        <v>0.1331967213114754</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01666666666666667</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1833333333333333</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="I18">
-        <v>0.05</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J18">
-        <v>0.4055555555555556</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K18">
-        <v>0.1055555555555556</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01666666666666667</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06111111111111111</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1611111111111111</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01777777777777778</v>
+        <v>0.01725554642563681</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2302222222222222</v>
+        <v>0.2292522596548891</v>
       </c>
       <c r="I19">
-        <v>0.06666666666666667</v>
+        <v>0.06820049301561217</v>
       </c>
       <c r="J19">
-        <v>0.368</v>
+        <v>0.3672966310599836</v>
       </c>
       <c r="K19">
-        <v>0.1022222222222222</v>
+        <v>0.1002465078060805</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01511111111111111</v>
+        <v>0.0180772391125719</v>
       </c>
       <c r="N19">
-        <v>0.0008888888888888889</v>
+        <v>0.0008216926869350862</v>
       </c>
       <c r="O19">
-        <v>0.07377777777777778</v>
+        <v>0.0714872637633525</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1253333333333333</v>
+        <v>0.1273623664749384</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/St. John's (NY)_A.xlsx
+++ b/team_specific_matrix/St. John's (NY)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2280130293159609</v>
+        <v>0.2275641025641026</v>
       </c>
       <c r="C2">
-        <v>0.5146579804560261</v>
+        <v>0.5160256410256411</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009771986970684038</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003257328990228013</v>
+        <v>0.003205128205128205</v>
       </c>
       <c r="P2">
-        <v>0.1693811074918567</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07491856677524431</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04761904761904762</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0119047619047619</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7559523809523809</v>
+        <v>0.7514450867052023</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1845238095238095</v>
+        <v>0.1791907514450867</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8409090909090909</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.09090909090909091</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05726872246696035</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00881057268722467</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08370044052863436</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2995594713656388</v>
+        <v>0.3021276595744681</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01762114537444934</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1497797356828194</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="R6">
-        <v>0.04845814977973568</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="S6">
-        <v>0.3348017621145374</v>
+        <v>0.3361702127659574</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0898876404494382</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01685393258426966</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05617977528089887</v>
+        <v>0.06077348066298342</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1573033707865168</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01685393258426966</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1853932584269663</v>
+        <v>0.1878453038674033</v>
       </c>
       <c r="R7">
-        <v>0.07865168539325842</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="S7">
-        <v>0.398876404494382</v>
+        <v>0.3977900552486188</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09677419354838709</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01935483870967742</v>
+        <v>0.02226720647773279</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05591397849462366</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1526881720430107</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01720430107526882</v>
+        <v>0.01821862348178137</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1763440860215054</v>
+        <v>0.1761133603238866</v>
       </c>
       <c r="R8">
-        <v>0.08387096774193549</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="S8">
-        <v>0.3978494623655914</v>
+        <v>0.402834008097166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09815950920245399</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01226993865030675</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03067484662576687</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.147239263803681</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01226993865030675</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2269938650306748</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="R9">
-        <v>0.09202453987730061</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="S9">
-        <v>0.3803680981595092</v>
+        <v>0.3942857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1072992700729927</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02116788321167883</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E10">
-        <v>0.00072992700729927</v>
+        <v>0.0007168458781362007</v>
       </c>
       <c r="F10">
-        <v>0.07591240875912408</v>
+        <v>0.07670250896057347</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1569343065693431</v>
+        <v>0.1541218637992832</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008759124087591242</v>
+        <v>0.008602150537634409</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2211678832116788</v>
+        <v>0.2200716845878136</v>
       </c>
       <c r="R10">
-        <v>0.08102189781021898</v>
+        <v>0.08172043010752689</v>
       </c>
       <c r="S10">
-        <v>0.327007299270073</v>
+        <v>0.3290322580645161</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1268115942028986</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1159420289855072</v>
+        <v>0.112280701754386</v>
       </c>
       <c r="K11">
-        <v>0.1956521739130435</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="L11">
-        <v>0.5543478260869565</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007246376811594203</v>
+        <v>0.007017543859649123</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.759493670886076</v>
+        <v>0.7393939393939394</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1835443037974684</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="K12">
-        <v>0.02531645569620253</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="L12">
-        <v>0.0189873417721519</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01265822784810127</v>
+        <v>0.01212121212121212</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.08333333333333333</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="J15">
-        <v>0.3935185185185185</v>
+        <v>0.3794642857142857</v>
       </c>
       <c r="K15">
-        <v>0.1064814814814815</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01388888888888889</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06018518518518518</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1990740740740741</v>
+        <v>0.2098214285714286</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01442307692307692</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2163461538461539</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="I16">
-        <v>0.07211538461538461</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="J16">
-        <v>0.3846153846153846</v>
+        <v>0.3785046728971962</v>
       </c>
       <c r="K16">
-        <v>0.1057692307692308</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05288461538461538</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1346153846153846</v>
+        <v>0.1355140186915888</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01639344262295082</v>
+        <v>0.01789264413518887</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1782786885245902</v>
+        <v>0.1848906560636183</v>
       </c>
       <c r="I17">
-        <v>0.07172131147540983</v>
+        <v>0.07554671968190854</v>
       </c>
       <c r="J17">
-        <v>0.4364754098360656</v>
+        <v>0.4274353876739563</v>
       </c>
       <c r="K17">
-        <v>0.06762295081967214</v>
+        <v>0.06759443339960239</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02459016393442623</v>
+        <v>0.02385685884691849</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07172131147540983</v>
+        <v>0.07157057654075547</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1331967213114754</v>
+        <v>0.1312127236580517</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01578947368421053</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1736842105263158</v>
+        <v>0.1658291457286432</v>
       </c>
       <c r="I18">
-        <v>0.05263157894736842</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="J18">
-        <v>0.4210526315789473</v>
+        <v>0.4271356783919598</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01578947368421053</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06315789473684211</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1578947368421053</v>
+        <v>0.1557788944723618</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01725554642563681</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2292522596548891</v>
+        <v>0.2353870458135861</v>
       </c>
       <c r="I19">
-        <v>0.06820049301561217</v>
+        <v>0.0703001579778831</v>
       </c>
       <c r="J19">
-        <v>0.3672966310599836</v>
+        <v>0.3609794628751975</v>
       </c>
       <c r="K19">
-        <v>0.1002465078060805</v>
+        <v>0.1003159557661927</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0180772391125719</v>
+        <v>0.01737756714060032</v>
       </c>
       <c r="N19">
-        <v>0.0008216926869350862</v>
+        <v>0.0007898894154818325</v>
       </c>
       <c r="O19">
-        <v>0.0714872637633525</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1273623664749384</v>
+        <v>0.127172195892575</v>
       </c>
     </row>
   </sheetData>
